--- a/quan.java/quan-config/excel/QuestTargetConfig.xlsx
+++ b/quan.java/quan-config/excel/QuestTargetConfig.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\quan\quan.java\config\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\IdeaProjects\quan\quan.java\quan-config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B80D15-FF76-48D6-9D76-B6BFCC897816}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,20 +24,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释</t>
-  </si>
-  <si>
-    <t>注释</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -57,7 +49,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -375,11 +367,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -392,26 +384,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
